--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F70BFE-E5FD-42A3-88C7-5039453F52E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D512F9B-ADA4-4519-91BC-1097295F8BAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
     <t>sheet名</t>
   </si>
@@ -108,21 +108,6 @@
   </si>
   <si>
     <t>免费第5次</t>
-  </si>
-  <si>
-    <t>免费第6次</t>
-  </si>
-  <si>
-    <t>免费第7次</t>
-  </si>
-  <si>
-    <t>免费第8次</t>
-  </si>
-  <si>
-    <t>免费第9次</t>
-  </si>
-  <si>
-    <t>免费第10次</t>
   </si>
   <si>
     <t>元宝第1次</t>
@@ -444,6 +429,36 @@
   <si>
     <t>金币兑换</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝第41次</t>
+  </si>
+  <si>
+    <t>元宝第42次</t>
+  </si>
+  <si>
+    <t>元宝第43次</t>
+  </si>
+  <si>
+    <t>元宝第44次</t>
+  </si>
+  <si>
+    <t>元宝第45次</t>
+  </si>
+  <si>
+    <t>元宝第46次</t>
+  </si>
+  <si>
+    <t>元宝第47次</t>
+  </si>
+  <si>
+    <t>元宝第48次</t>
+  </si>
+  <si>
+    <t>元宝第49次</t>
+  </si>
+  <si>
+    <t>元宝第50次</t>
   </si>
 </sst>
 </file>
@@ -1014,18 +1029,18 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1033,18 +1048,18 @@
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1052,18 +1067,18 @@
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G4" s="3" t="b">
         <v>1</v>
@@ -1071,18 +1086,18 @@
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3" t="b">
         <v>1</v>
@@ -1100,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:G53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1115,7 +1130,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
@@ -1127,10 +1142,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>7</v>
@@ -1147,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
@@ -1173,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -1199,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -1219,10 +1234,10 @@
         <v>103</v>
       </c>
       <c r="E5" s="8">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F5" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -1242,10 +1257,10 @@
         <v>103</v>
       </c>
       <c r="E6" s="8">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F6" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -1265,10 +1280,10 @@
         <v>103</v>
       </c>
       <c r="E7" s="8">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1288,10 +1303,10 @@
         <v>103</v>
       </c>
       <c r="E8" s="8">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -1311,13 +1326,13 @@
         <v>103</v>
       </c>
       <c r="E9" s="8">
-        <v>1.25</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="F9" s="8">
         <v>0.1</v>
       </c>
       <c r="G9" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1334,13 +1349,13 @@
         <v>103</v>
       </c>
       <c r="E10" s="8">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="F10" s="8">
         <v>0.1</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1357,13 +1372,13 @@
         <v>103</v>
       </c>
       <c r="E11" s="8">
-        <v>1.35</v>
+        <v>1.075</v>
       </c>
       <c r="F11" s="8">
         <v>0.1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1380,13 +1395,13 @@
         <v>103</v>
       </c>
       <c r="E12" s="8">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F12" s="8">
         <v>0.1</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1403,13 +1418,13 @@
         <v>103</v>
       </c>
       <c r="E13" s="8">
-        <v>1.45</v>
+        <v>1.125</v>
       </c>
       <c r="F13" s="8">
         <v>0.1</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1426,13 +1441,13 @@
         <v>103</v>
       </c>
       <c r="E14" s="8">
-        <v>1.5</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F14" s="8">
         <v>0.1</v>
       </c>
       <c r="G14" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1449,13 +1464,13 @@
         <v>103</v>
       </c>
       <c r="E15" s="8">
-        <v>1.55</v>
+        <v>1.175</v>
       </c>
       <c r="F15" s="8">
         <v>0.1</v>
       </c>
       <c r="G15" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1472,13 +1487,13 @@
         <v>103</v>
       </c>
       <c r="E16" s="8">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="F16" s="8">
         <v>0.1</v>
       </c>
       <c r="G16" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1495,13 +1510,13 @@
         <v>103</v>
       </c>
       <c r="E17" s="8">
-        <v>1.65</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="F17" s="8">
         <v>0.1</v>
       </c>
       <c r="G17" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1518,13 +1533,13 @@
         <v>103</v>
       </c>
       <c r="E18" s="8">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="F18" s="8">
         <v>0.1</v>
       </c>
       <c r="G18" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1541,13 +1556,13 @@
         <v>103</v>
       </c>
       <c r="E19" s="8">
-        <v>1.75</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="F19" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G19" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1564,13 +1579,13 @@
         <v>103</v>
       </c>
       <c r="E20" s="8">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="F20" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G20" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1587,13 +1602,13 @@
         <v>103</v>
       </c>
       <c r="E21" s="8">
-        <v>1.85</v>
+        <v>1.325</v>
       </c>
       <c r="F21" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G21" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1610,13 +1625,13 @@
         <v>103</v>
       </c>
       <c r="E22" s="8">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="F22" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G22" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1633,13 +1648,13 @@
         <v>103</v>
       </c>
       <c r="E23" s="8">
-        <v>1.95</v>
+        <v>1.375</v>
       </c>
       <c r="F23" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G23" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1656,10 +1671,10 @@
         <v>103</v>
       </c>
       <c r="E24" s="8">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="F24" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G24" s="10">
         <v>20</v>
@@ -1679,10 +1694,10 @@
         <v>103</v>
       </c>
       <c r="E25" s="8">
-        <v>2.0499999999999998</v>
+        <v>1.425</v>
       </c>
       <c r="F25" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G25" s="10">
         <v>20</v>
@@ -1702,10 +1717,10 @@
         <v>103</v>
       </c>
       <c r="E26" s="8">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="F26" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G26" s="10">
         <v>20</v>
@@ -1725,10 +1740,10 @@
         <v>103</v>
       </c>
       <c r="E27" s="8">
-        <v>2.15</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="F27" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G27" s="10">
         <v>20</v>
@@ -1748,10 +1763,10 @@
         <v>103</v>
       </c>
       <c r="E28" s="8">
-        <v>2.2000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="F28" s="8">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="G28" s="10">
         <v>20</v>
@@ -1771,13 +1786,13 @@
         <v>103</v>
       </c>
       <c r="E29" s="8">
-        <v>2.25</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="F29" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G29" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1794,13 +1809,13 @@
         <v>103</v>
       </c>
       <c r="E30" s="8">
-        <v>2.2999999999999998</v>
+        <v>1.55</v>
       </c>
       <c r="F30" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G30" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1817,13 +1832,13 @@
         <v>103</v>
       </c>
       <c r="E31" s="8">
-        <v>2.35</v>
+        <v>1.575</v>
       </c>
       <c r="F31" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G31" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1840,13 +1855,13 @@
         <v>103</v>
       </c>
       <c r="E32" s="8">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="F32" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G32" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1863,13 +1878,13 @@
         <v>103</v>
       </c>
       <c r="E33" s="8">
-        <v>2.4500000000000002</v>
+        <v>1.625</v>
       </c>
       <c r="F33" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G33" s="10">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1886,13 +1901,13 @@
         <v>103</v>
       </c>
       <c r="E34" s="8">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="F34" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G34" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1909,13 +1924,13 @@
         <v>103</v>
       </c>
       <c r="E35" s="8">
-        <v>2.5499999999999998</v>
+        <v>1.675</v>
       </c>
       <c r="F35" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G35" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1932,13 +1947,13 @@
         <v>103</v>
       </c>
       <c r="E36" s="8">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="F36" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G36" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1955,13 +1970,13 @@
         <v>103</v>
       </c>
       <c r="E37" s="8">
-        <v>2.65</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="F37" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G37" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -1978,13 +1993,13 @@
         <v>103</v>
       </c>
       <c r="E38" s="8">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="F38" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G38" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2001,13 +2016,13 @@
         <v>103</v>
       </c>
       <c r="E39" s="8">
-        <v>2.75</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="F39" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G39" s="10">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2024,13 +2039,13 @@
         <v>103</v>
       </c>
       <c r="E40" s="8">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="F40" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G40" s="10">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2047,13 +2062,13 @@
         <v>103</v>
       </c>
       <c r="E41" s="8">
-        <v>2.85</v>
+        <v>1.825</v>
       </c>
       <c r="F41" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G41" s="10">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2070,13 +2085,13 @@
         <v>103</v>
       </c>
       <c r="E42" s="8">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="F42" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G42" s="10">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2093,13 +2108,13 @@
         <v>103</v>
       </c>
       <c r="E43" s="8">
-        <v>2.95</v>
+        <v>1.875</v>
       </c>
       <c r="F43" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G43" s="10">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2116,13 +2131,13 @@
         <v>103</v>
       </c>
       <c r="E44" s="8">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="F44" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G44" s="10">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2139,13 +2154,13 @@
         <v>103</v>
       </c>
       <c r="E45" s="8">
-        <v>3.05</v>
+        <v>1.925</v>
       </c>
       <c r="F45" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G45" s="10">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2162,13 +2177,13 @@
         <v>103</v>
       </c>
       <c r="E46" s="8">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="F46" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G46" s="10">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2185,13 +2200,13 @@
         <v>103</v>
       </c>
       <c r="E47" s="8">
-        <v>3.15</v>
+        <v>1.9750000000000001</v>
       </c>
       <c r="F47" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G47" s="10">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2208,13 +2223,13 @@
         <v>103</v>
       </c>
       <c r="E48" s="8">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="F48" s="8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G48" s="10">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2222,7 +2237,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C49" s="8">
         <v>2</v>
@@ -2231,13 +2246,13 @@
         <v>103</v>
       </c>
       <c r="E49" s="8">
-        <v>3.25</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="F49" s="8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G49" s="10">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2245,7 +2260,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
@@ -2254,13 +2269,13 @@
         <v>103</v>
       </c>
       <c r="E50" s="8">
-        <v>3.3</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F50" s="8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G50" s="10">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2268,7 +2283,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C51" s="8">
         <v>2</v>
@@ -2277,13 +2292,13 @@
         <v>103</v>
       </c>
       <c r="E51" s="8">
-        <v>3.35</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="F51" s="8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G51" s="10">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2291,7 +2306,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C52" s="8">
         <v>2</v>
@@ -2300,13 +2315,13 @@
         <v>103</v>
       </c>
       <c r="E52" s="8">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="F52" s="8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G52" s="10">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -2314,7 +2329,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C53" s="8">
         <v>2</v>
@@ -2323,13 +2338,128 @@
         <v>103</v>
       </c>
       <c r="E53" s="8">
-        <v>3.45</v>
+        <v>2.125</v>
       </c>
       <c r="F53" s="8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G53" s="10">
-        <v>20</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>51</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="8">
+        <v>2</v>
+      </c>
+      <c r="D54" s="8">
+        <v>103</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2.15</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G54" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>52</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8">
+        <v>103</v>
+      </c>
+      <c r="E55" s="8">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>53</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8">
+        <v>103</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G56" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>54</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="8">
+        <v>103</v>
+      </c>
+      <c r="E57" s="8">
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G57" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" s="8">
+        <v>103</v>
+      </c>
+      <c r="E58" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2343,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CCA526-31CC-4798-BBF0-25AA01762302}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2365,43 +2495,43 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2415,34 +2545,34 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -2453,37 +2583,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2491,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" s="8">
         <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2516,19 +2646,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8">
         <v>280</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -2545,31 +2675,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C6" s="8">
         <v>480</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I6" s="3">
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3">
         <v>2</v>
@@ -2582,37 +2712,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C7" s="8">
         <v>980</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G7" s="3">
         <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I7" s="3">
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3">
         <v>3</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M7" s="3">
         <v>1</v>
@@ -2623,37 +2753,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C8" s="8">
         <v>1980</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G8" s="3">
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M8" s="3">
         <v>2</v>
@@ -2664,37 +2794,37 @@
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8">
         <v>4980</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K9" s="3">
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M9" s="3">
         <v>3</v>
@@ -2705,37 +2835,37 @@
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8">
         <v>9980</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E10" s="3">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G10" s="3">
         <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>6</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K10" s="3">
         <v>6</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M10" s="3">
         <v>4</v>
@@ -2746,37 +2876,37 @@
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8">
         <v>19980</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G11" s="3">
         <v>7</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I11" s="3">
         <v>7</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K11" s="3">
         <v>7</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M11" s="3">
         <v>5</v>
@@ -2787,37 +2917,37 @@
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" s="8">
         <v>49980</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G12" s="3">
         <v>8</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K12" s="3">
         <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M12" s="3">
         <v>6</v>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D512F9B-ADA4-4519-91BC-1097295F8BAD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0457A0-220F-4F08-B980-01EA91758859}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6598D9A-57B2-4E82-A82D-F3E74EA774ED}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1128,7 @@
     <col min="7" max="7" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>72</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1219,8 +1219,16 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f>(1-F4)*1+F4*2</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>SUMPRODUCT(E4:E33,J4:J33)</f>
+        <v>45.315624999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1242,8 +1250,12 @@
       <c r="G5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <f t="shared" ref="J5:J58" si="0">(1-F5)*1+F5*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1265,8 +1277,12 @@
       <c r="G6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1288,8 +1304,12 @@
       <c r="G7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1311,8 +1331,12 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1329,13 +1353,17 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="F9" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G9" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1352,13 +1380,17 @@
         <v>1.05</v>
       </c>
       <c r="F10" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G10" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1375,13 +1407,17 @@
         <v>1.075</v>
       </c>
       <c r="F11" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G11" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1398,13 +1434,17 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F12" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G12" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1421,13 +1461,17 @@
         <v>1.125</v>
       </c>
       <c r="F13" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G13" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -1444,13 +1488,17 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="F14" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G14" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -1467,13 +1515,17 @@
         <v>1.175</v>
       </c>
       <c r="F15" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G15" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -1490,13 +1542,17 @@
         <v>1.2</v>
       </c>
       <c r="F16" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G16" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -1513,13 +1569,17 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="F17" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G17" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -1536,13 +1596,17 @@
         <v>1.25</v>
       </c>
       <c r="F18" s="8">
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G18" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -1559,13 +1623,17 @@
         <v>1.2749999999999999</v>
       </c>
       <c r="F19" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G19" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -1582,13 +1650,17 @@
         <v>1.3</v>
       </c>
       <c r="F20" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G20" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -1605,13 +1677,17 @@
         <v>1.325</v>
       </c>
       <c r="F21" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G21" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -1628,13 +1704,17 @@
         <v>1.35</v>
       </c>
       <c r="F22" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G22" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -1651,13 +1731,17 @@
         <v>1.375</v>
       </c>
       <c r="F23" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G23" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -1674,13 +1758,17 @@
         <v>1.4</v>
       </c>
       <c r="F24" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G24" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -1697,13 +1785,17 @@
         <v>1.425</v>
       </c>
       <c r="F25" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G25" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -1720,13 +1812,17 @@
         <v>1.45</v>
       </c>
       <c r="F26" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G26" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -1743,13 +1839,17 @@
         <v>1.4750000000000001</v>
       </c>
       <c r="F27" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G27" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -1766,13 +1866,17 @@
         <v>1.5</v>
       </c>
       <c r="F28" s="8">
-        <v>0.15</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="G28" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -1789,13 +1893,17 @@
         <v>1.5249999999999999</v>
       </c>
       <c r="F29" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G29" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -1812,13 +1920,17 @@
         <v>1.55</v>
       </c>
       <c r="F30" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G30" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -1835,13 +1947,17 @@
         <v>1.575</v>
       </c>
       <c r="F31" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G31" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -1858,13 +1974,17 @@
         <v>1.6</v>
       </c>
       <c r="F32" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G32" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -1881,13 +2001,17 @@
         <v>1.625</v>
       </c>
       <c r="F33" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G33" s="10">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>31</v>
       </c>
@@ -1904,13 +2028,17 @@
         <v>1.65</v>
       </c>
       <c r="F34" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G34" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>32</v>
       </c>
@@ -1927,13 +2055,17 @@
         <v>1.675</v>
       </c>
       <c r="F35" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G35" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>33</v>
       </c>
@@ -1950,13 +2082,17 @@
         <v>1.7</v>
       </c>
       <c r="F36" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G36" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>34</v>
       </c>
@@ -1973,13 +2109,17 @@
         <v>1.7250000000000001</v>
       </c>
       <c r="F37" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G37" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>35</v>
       </c>
@@ -1996,13 +2136,17 @@
         <v>1.75</v>
       </c>
       <c r="F38" s="8">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G38" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>36</v>
       </c>
@@ -2019,13 +2163,17 @@
         <v>1.7749999999999999</v>
       </c>
       <c r="F39" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G39" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>37</v>
       </c>
@@ -2042,13 +2190,17 @@
         <v>1.8</v>
       </c>
       <c r="F40" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G40" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>38</v>
       </c>
@@ -2065,13 +2217,17 @@
         <v>1.825</v>
       </c>
       <c r="F41" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G41" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>39</v>
       </c>
@@ -2088,13 +2244,17 @@
         <v>1.85</v>
       </c>
       <c r="F42" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G42" s="10">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>40</v>
       </c>
@@ -2111,13 +2271,17 @@
         <v>1.875</v>
       </c>
       <c r="F43" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G43" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>41</v>
       </c>
@@ -2134,13 +2298,17 @@
         <v>1.9</v>
       </c>
       <c r="F44" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G44" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>42</v>
       </c>
@@ -2157,13 +2325,17 @@
         <v>1.925</v>
       </c>
       <c r="F45" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G45" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>43</v>
       </c>
@@ -2180,13 +2352,17 @@
         <v>1.95</v>
       </c>
       <c r="F46" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G46" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>44</v>
       </c>
@@ -2203,13 +2379,17 @@
         <v>1.9750000000000001</v>
       </c>
       <c r="F47" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G47" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>45</v>
       </c>
@@ -2226,13 +2406,17 @@
         <v>2</v>
       </c>
       <c r="F48" s="8">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="G48" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>46</v>
       </c>
@@ -2249,13 +2433,17 @@
         <v>2.0249999999999999</v>
       </c>
       <c r="F49" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G49" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>47</v>
       </c>
@@ -2272,13 +2460,17 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="F50" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G50" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>48</v>
       </c>
@@ -2295,13 +2487,17 @@
         <v>2.0750000000000002</v>
       </c>
       <c r="F51" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G51" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>49</v>
       </c>
@@ -2318,13 +2514,17 @@
         <v>2.1</v>
       </c>
       <c r="F52" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G52" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>50</v>
       </c>
@@ -2341,13 +2541,17 @@
         <v>2.125</v>
       </c>
       <c r="F53" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G53" s="10">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>51</v>
       </c>
@@ -2364,13 +2568,17 @@
         <v>2.15</v>
       </c>
       <c r="F54" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G54" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>52</v>
       </c>
@@ -2387,13 +2595,17 @@
         <v>2.1749999999999998</v>
       </c>
       <c r="F55" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G55" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>53</v>
       </c>
@@ -2410,13 +2622,17 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F56" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G56" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>54</v>
       </c>
@@ -2433,13 +2649,17 @@
         <v>2.2250000000000001</v>
       </c>
       <c r="F57" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G57" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>55</v>
       </c>
@@ -2456,10 +2676,14 @@
         <v>2.25</v>
       </c>
       <c r="F58" s="8">
-        <v>0.3</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="G58" s="3">
         <v>50</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0457A0-220F-4F08-B980-01EA91758859}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4B9B97-F32D-4267-9C71-1AF5489CF860}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="118">
   <si>
     <t>sheet名</t>
   </si>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1129,48 +1129,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E9" s="8">
         <v>1.0249999999999999</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E10" s="8">
         <v>1.05</v>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E11" s="8">
         <v>1.075</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E12" s="8">
         <v>1.1000000000000001</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E13" s="8">
         <v>1.125</v>
@@ -1482,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E14" s="8">
         <v>1.1499999999999999</v>
@@ -1509,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E15" s="8">
         <v>1.175</v>
@@ -1536,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E16" s="8">
         <v>1.2</v>
@@ -1563,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E17" s="8">
         <v>1.2250000000000001</v>
@@ -1590,7 +1590,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E18" s="8">
         <v>1.25</v>
@@ -1617,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E19" s="8">
         <v>1.2749999999999999</v>
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E20" s="8">
         <v>1.3</v>
@@ -1671,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E21" s="8">
         <v>1.325</v>
@@ -1698,7 +1698,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E22" s="8">
         <v>1.35</v>
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E23" s="8">
         <v>1.375</v>
@@ -1752,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E24" s="8">
         <v>1.4</v>
@@ -1779,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E25" s="8">
         <v>1.425</v>
@@ -1806,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E26" s="8">
         <v>1.45</v>
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E27" s="8">
         <v>1.4750000000000001</v>
@@ -1860,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E28" s="8">
         <v>1.5</v>
@@ -1887,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E29" s="8">
         <v>1.5249999999999999</v>
@@ -1914,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E30" s="8">
         <v>1.55</v>
@@ -1941,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E31" s="8">
         <v>1.575</v>
@@ -1968,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E32" s="8">
         <v>1.6</v>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E33" s="8">
         <v>1.625</v>
@@ -2022,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E34" s="8">
         <v>1.65</v>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E35" s="8">
         <v>1.675</v>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E36" s="8">
         <v>1.7</v>
@@ -2103,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E37" s="8">
         <v>1.7250000000000001</v>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E38" s="8">
         <v>1.75</v>
@@ -2157,7 +2157,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E39" s="8">
         <v>1.7749999999999999</v>
@@ -2184,7 +2184,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E40" s="8">
         <v>1.8</v>
@@ -2211,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E41" s="8">
         <v>1.825</v>
@@ -2238,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E42" s="8">
         <v>1.85</v>
@@ -2265,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E43" s="8">
         <v>1.875</v>
@@ -2292,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E44" s="8">
         <v>1.9</v>
@@ -2319,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E45" s="8">
         <v>1.925</v>
@@ -2346,7 +2346,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E46" s="8">
         <v>1.95</v>
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E47" s="8">
         <v>1.9750000000000001</v>
@@ -2400,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E48" s="8">
         <v>2</v>
@@ -2427,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E49" s="8">
         <v>2.0249999999999999</v>
@@ -2454,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E50" s="8">
         <v>2.0499999999999998</v>
@@ -2481,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E51" s="8">
         <v>2.0750000000000002</v>
@@ -2508,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E52" s="8">
         <v>2.1</v>
@@ -2535,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E53" s="8">
         <v>2.125</v>
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E54" s="8">
         <v>2.15</v>
@@ -2589,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E55" s="8">
         <v>2.1749999999999998</v>
@@ -2616,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E56" s="8">
         <v>2.2000000000000002</v>
@@ -2643,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E57" s="8">
         <v>2.2250000000000001</v>
@@ -2670,7 +2670,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E58" s="8">
         <v>2.25</v>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9A620A-015E-4534-A792-98E3C793EB65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC97EE5B-DB37-4E61-ABC3-9E4B2E4D877F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="充值" sheetId="28" r:id="rId4"/>
     <sheet name="新服累充" sheetId="29" r:id="rId5"/>
     <sheet name="钻石商城" sheetId="30" r:id="rId6"/>
+    <sheet name="月卡表" sheetId="31" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="181">
   <si>
     <t>sheet名</t>
   </si>
@@ -466,175 +467,270 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>68元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>25元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,rowId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新服累充</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsCharge.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>costsNum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodityID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计钻石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元首冲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元首冲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>30元首冲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元首冲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元首冲</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端充值额度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端充值额度</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端新服累充</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端新服累充</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商城</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneShop.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>6元</t>
+  </si>
+  <si>
+    <t>chargeId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值Id</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>30元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>50元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元</t>
+  </si>
+  <si>
+    <t>328元</t>
+  </si>
+  <si>
+    <t>648元</t>
+  </si>
+  <si>
+    <t>客户端钻石商城表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端钻石商城表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valv</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励ID1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励权重1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>privilege</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:ae&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodyId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品Id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>edAward[1].id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>edAward[1].valw</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>edAward[1].valv</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日奖励ID1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日奖励权重1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日奖励值1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>68元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>198元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>258元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>328元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>648元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>25元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>新服累充</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>nsCharge.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>costsNum</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>commodityID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计钻石</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>30元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>60元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>100元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端充值额度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端充值额度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端新服累充</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端新服累充</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石商城</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>stoneShop.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>6元</t>
-  </si>
-  <si>
-    <t>chargeId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值Id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>30元</t>
-  </si>
-  <si>
-    <t>50元</t>
-  </si>
-  <si>
-    <t>100元</t>
-  </si>
-  <si>
-    <t>198元</t>
-  </si>
-  <si>
-    <t>258元</t>
-  </si>
-  <si>
-    <t>328元</t>
-  </si>
-  <si>
-    <t>648元</t>
-  </si>
-  <si>
-    <t>客户端钻石商城表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端钻石商城表</t>
+  </si>
+  <si>
+    <t>68元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>128元</t>
+  </si>
+  <si>
+    <t>128元</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>monCard.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端月卡表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端月卡表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>201,202,203</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>204,205,206</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +943,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -893,6 +989,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
@@ -1180,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1298,20 +1400,20 @@
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G6" s="9" t="b">
         <v>1</v>
@@ -1319,20 +1421,20 @@
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G7" s="9" t="b">
         <v>1</v>
@@ -1340,20 +1442,20 @@
     </row>
     <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G8" s="9" t="b">
         <v>1</v>
@@ -1361,53 +1463,53 @@
     </row>
     <row r="9" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G9" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G10" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>105</v>
@@ -1416,9 +1518,51 @@
         <v>105</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1434,7 +1578,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3185,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>103</v>
@@ -3279,10 +3423,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0AE9D-1735-4772-9B14-6438E9A43218}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3300,7 +3444,7 @@
         <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>109</v>
@@ -3356,7 +3500,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="D5" s="9">
         <v>6</v>
@@ -3370,7 +3514,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="D6" s="9">
         <v>30</v>
@@ -3384,10 +3528,10 @@
         <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="D7" s="9">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3398,10 +3542,10 @@
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D8" s="9">
-        <v>100</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3412,10 +3556,10 @@
         <v>106</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D9" s="9">
-        <v>198</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -3426,65 +3570,37 @@
         <v>107</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D10" s="9">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="9">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D11" s="9">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="9">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D12" s="9">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9">
-        <v>110</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>11</v>
-      </c>
-      <c r="B14" s="9">
-        <v>111</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="9">
         <v>68</v>
       </c>
     </row>
@@ -3499,7 +3615,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3517,13 +3633,13 @@
         <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3554,10 +3670,10 @@
         <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3568,7 +3684,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -3585,7 +3701,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D5" s="9">
         <v>6</v>
@@ -3602,7 +3718,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D6" s="9">
         <v>30</v>
@@ -3619,7 +3735,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D7" s="9">
         <v>60</v>
@@ -3636,7 +3752,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D8" s="9">
         <v>100</v>
@@ -3653,10 +3769,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F090C25-4CA8-4FFF-BD31-9200E200FC25}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3664,9 +3780,11 @@
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -3674,13 +3792,16 @@
         <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>110</v>
       </c>
@@ -3693,8 +3814,11 @@
       <c r="D2" s="16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E2" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -3705,10 +3829,13 @@
         <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -3716,13 +3843,16 @@
         <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D4" s="9">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E4" s="9">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -3730,13 +3860,16 @@
         <v>102</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D5" s="9">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E5" s="9">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -3744,13 +3877,16 @@
         <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D6" s="9">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E6" s="9">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -3758,13 +3894,16 @@
         <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D7" s="9">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E7" s="9">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -3772,13 +3911,16 @@
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D8" s="9">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E8" s="9">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -3786,38 +3928,200 @@
         <v>106</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="9">
+        <v>107</v>
+      </c>
+      <c r="E9" s="9">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D38551-5BB3-4892-92E7-2A1BF3977D7F}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="9">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9">
-        <v>107</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="E2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="9">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="9">
-        <v>108</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="9">
-        <v>109</v>
+      <c r="G2" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>101</v>
+      </c>
+      <c r="C4" s="9">
+        <v>201</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>300</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>102</v>
+      </c>
+      <c r="C5" s="9">
+        <v>202</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>688</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC97EE5B-DB37-4E61-ABC3-9E4B2E4D877F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45326815-6F6E-49B9-87A6-AA6A4A1AED5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="182">
   <si>
     <t>sheet名</t>
   </si>
@@ -587,14 +587,6 @@
     <t>648元</t>
   </si>
   <si>
-    <t>客户端钻石商城表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端钻石商城表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>award[1].id</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -731,6 +723,18 @@
   </si>
   <si>
     <t>204,205,206</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商城表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>dua</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1282,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1482,87 +1486,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="D10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G10" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>140</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="G11" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>177</v>
-      </c>
       <c r="G12" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3528,7 +3513,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D7" s="9">
         <v>68</v>
@@ -3542,7 +3527,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8" s="9">
         <v>128</v>
@@ -3772,7 +3757,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3798,7 +3783,7 @@
         <v>142</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3832,7 +3817,7 @@
         <v>143</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3877,7 +3862,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="9">
         <v>104</v>
@@ -3894,7 +3879,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="9">
         <v>105</v>
@@ -3917,7 +3902,7 @@
         <v>106</v>
       </c>
       <c r="E8" s="9">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3934,7 +3919,7 @@
         <v>107</v>
       </c>
       <c r="E9" s="9">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3945,26 +3930,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D38551-5BB3-4892-92E7-2A1BF3977D7F}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -3975,60 +3961,66 @@
         <v>142</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>156</v>
-      </c>
       <c r="I2" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K2" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -4036,31 +4028,34 @@
         <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="H3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -4070,29 +4065,32 @@
       <c r="C4" s="9">
         <v>201</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="9">
+        <v>30</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
         <v>300</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="H4" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="K4" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -4102,25 +4100,28 @@
       <c r="C5" s="9">
         <v>202</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
+      <c r="G5" s="9">
         <v>688</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="9">
+      <c r="K5" s="9">
         <v>100</v>
       </c>
     </row>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45326815-6F6E-49B9-87A6-AA6A4A1AED5B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47915527-FF88-4E83-9404-E2C412077F61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="191">
   <si>
     <t>sheet名</t>
   </si>
@@ -736,6 +736,39 @@
   <si>
     <t>持续时间</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoAward</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动获得</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieveId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_id:&lt;&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>累充1元</t>
+  </si>
+  <si>
+    <t>累充30元</t>
+  </si>
+  <si>
+    <t>累充60元</t>
   </si>
 </sst>
 </file>
@@ -3597,20 +3630,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD5181-A6FC-441B-BBA9-957704085104}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="3" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -3621,13 +3655,19 @@
         <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>114</v>
       </c>
@@ -3638,13 +3678,19 @@
         <v>111</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -3655,13 +3701,19 @@
         <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -3671,14 +3723,20 @@
       <c r="C4" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -3688,14 +3746,20 @@
       <c r="C5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="9">
         <v>6</v>
       </c>
-      <c r="E5" s="9">
+      <c r="G5" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -3705,14 +3769,20 @@
       <c r="C6" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="9">
         <v>30</v>
       </c>
-      <c r="E6" s="9">
+      <c r="G6" s="9">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -3722,14 +3792,20 @@
       <c r="C7" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="9">
         <v>60</v>
       </c>
-      <c r="E7" s="9">
+      <c r="G7" s="9">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -3739,16 +3815,23 @@
       <c r="C8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="9">
         <v>100</v>
       </c>
-      <c r="E8" s="9">
+      <c r="G8" s="9">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3932,8 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D38551-5BB3-4892-92E7-2A1BF3977D7F}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47915527-FF88-4E83-9404-E2C412077F61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3308A-67CE-409D-9498-CC605C1CCC6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="191">
   <si>
     <t>sheet名</t>
   </si>
@@ -551,10 +551,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>客户端新服累充</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>服务端新服累充</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -769,6 +765,10 @@
   </si>
   <si>
     <t>累充60元</t>
+  </si>
+  <si>
+    <t>nsCharge.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1319,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1477,19 +1477,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>137</v>
@@ -1498,96 +1500,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="C9" s="9" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="G9" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>140</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G10" s="9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>175</v>
       </c>
       <c r="G11" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="9" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3518,7 +3499,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="9">
         <v>6</v>
@@ -3532,7 +3513,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="9">
         <v>30</v>
@@ -3546,7 +3527,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D7" s="9">
         <v>68</v>
@@ -3560,7 +3541,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D8" s="9">
         <v>128</v>
@@ -3574,7 +3555,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="9">
         <v>328</v>
@@ -3588,7 +3569,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="9">
         <v>648</v>
@@ -3632,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD5181-A6FC-441B-BBA9-957704085104}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3655,10 +3636,10 @@
         <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>126</v>
@@ -3678,10 +3659,10 @@
         <v>111</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>114</v>
@@ -3701,10 +3682,10 @@
         <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>128</v>
@@ -3727,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="9">
         <v>1</v>
@@ -3773,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="9">
         <v>30</v>
@@ -3796,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="9">
         <v>60</v>
@@ -3863,10 +3844,10 @@
         <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3897,10 +3878,10 @@
         <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3911,7 +3892,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9">
         <v>102</v>
@@ -3928,7 +3909,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="9">
         <v>103</v>
@@ -3945,7 +3926,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="9">
         <v>104</v>
@@ -3962,7 +3943,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="9">
         <v>105</v>
@@ -3979,7 +3960,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="9">
         <v>106</v>
@@ -3996,7 +3977,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="9">
         <v>107</v>
@@ -4041,31 +4022,31 @@
         <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -4073,7 +4054,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>110</v>
@@ -4082,25 +4063,25 @@
         <v>110</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>110</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>110</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
@@ -4111,31 +4092,31 @@
         <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4152,7 +4133,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4" s="9">
         <v>0</v>
@@ -4161,10 +4142,10 @@
         <v>300</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
@@ -4187,7 +4168,7 @@
         <v>-1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="9">
         <v>0</v>
@@ -4196,10 +4177,10 @@
         <v>688</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="9">
         <v>0</v>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3308A-67CE-409D-9498-CC605C1CCC6A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D67DBE-A433-42AF-B9C4-FD940870B9F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3996,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D38551-5BB3-4892-92E7-2A1BF3977D7F}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D67DBE-A433-42AF-B9C4-FD940870B9F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E673F0CF-CAB6-4C9E-B7D1-FEAB5380DFC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3613,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD5181-A6FC-441B-BBA9-957704085104}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3996,7 +3996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D38551-5BB3-4892-92E7-2A1BF3977D7F}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E673F0CF-CAB6-4C9E-B7D1-FEAB5380DFC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00058B48-9A49-4553-AF08-2AC60E993D47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="193">
   <si>
     <t>sheet名</t>
   </si>
@@ -768,6 +768,14 @@
   </si>
   <si>
     <t>nsCharge.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoneId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK付费ID</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3422,20 +3430,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0AE9D-1735-4772-9B14-6438E9A43218}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="3" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>105</v>
       </c>
@@ -3446,10 +3454,13 @@
         <v>125</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>110</v>
       </c>
@@ -3462,8 +3473,11 @@
       <c r="D2" s="16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="E2" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>112</v>
       </c>
@@ -3474,10 +3488,13 @@
         <v>107</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -3488,10 +3505,13 @@
         <v>115</v>
       </c>
       <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -3502,10 +3522,13 @@
         <v>140</v>
       </c>
       <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -3516,10 +3539,13 @@
         <v>143</v>
       </c>
       <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -3530,10 +3556,13 @@
         <v>168</v>
       </c>
       <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -3544,10 +3573,13 @@
         <v>170</v>
       </c>
       <c r="D8" s="9">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -3558,10 +3590,13 @@
         <v>144</v>
       </c>
       <c r="D9" s="9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="9">
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -3572,10 +3607,13 @@
         <v>145</v>
       </c>
       <c r="D10" s="9">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9">
         <v>648</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -3586,10 +3624,13 @@
         <v>117</v>
       </c>
       <c r="D11" s="9">
+        <v>9</v>
+      </c>
+      <c r="E11" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -3600,6 +3641,9 @@
         <v>116</v>
       </c>
       <c r="D12" s="9">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9">
         <v>68</v>
       </c>
     </row>
@@ -3613,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD5181-A6FC-441B-BBA9-957704085104}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00058B48-9A49-4553-AF08-2AC60E993D47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8034FC68-86CD-486D-8EE5-BC3B5F8710B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3432,7 +3432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0AE9D-1735-4772-9B14-6438E9A43218}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4040,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D38551-5BB3-4892-92E7-2A1BF3977D7F}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8034FC68-86CD-486D-8EE5-BC3B5F8710B3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C171B-A05A-4508-8F60-EDC03B46B810}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4041,7 +4041,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,25 +8,62 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C171B-A05A-4508-8F60-EDC03B46B810}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF42C66-574B-4672-BEAB-4827AFF1DCA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="金币兑换" sheetId="26" r:id="rId2"/>
     <sheet name="累计充值" sheetId="27" r:id="rId3"/>
-    <sheet name="充值" sheetId="28" r:id="rId4"/>
-    <sheet name="新服累充" sheetId="29" r:id="rId5"/>
-    <sheet name="钻石商城" sheetId="30" r:id="rId6"/>
-    <sheet name="月卡表" sheetId="31" r:id="rId7"/>
+    <sheet name="限时直冲礼包" sheetId="32" r:id="rId4"/>
+    <sheet name="充值" sheetId="28" r:id="rId5"/>
+    <sheet name="新服累充" sheetId="29" r:id="rId6"/>
+    <sheet name="钻石商城" sheetId="30" r:id="rId7"/>
+    <sheet name="月卡表" sheetId="31" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>LIPENG</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{FACE50BF-1599-4584-AD01-45FBE5C68BDD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>LIPENG:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+秒</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="210">
   <si>
     <t>sheet名</t>
   </si>
@@ -778,12 +815,80 @@
     <t>SDK付费ID</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>commodityID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时直冲礼包</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端限时直冲的表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端限时直冲的表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tlistCharge.json</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,6 +980,28 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1027,9 +1154,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1039,6 +1163,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1327,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1440,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1570,6 +1697,48 @@
         <v>175</v>
       </c>
       <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3165,7 +3334,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D4" sqref="D4:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3194,7 +3363,7 @@
       <c r="C1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3222,7 +3391,7 @@
       <c r="C3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3429,11 +3598,103 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A080F687-34A6-4531-8CF0-FE6ECDFD8B0C}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="26" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>101</v>
+      </c>
+      <c r="C4" s="9">
+        <v>129600</v>
+      </c>
+      <c r="D4" s="9">
+        <v>202</v>
+      </c>
+      <c r="E4" s="9">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0AE9D-1735-4772-9B14-6438E9A43218}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3461,19 +3722,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3653,12 +3914,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD5181-A6FC-441B-BBA9-957704085104}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3693,25 +3954,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3860,12 +4121,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F090C25-4CA8-4FFF-BD31-9200E200FC25}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3890,24 +4151,24 @@
       <c r="D1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4036,12 +4297,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D38551-5BB3-4892-92E7-2A1BF3977D7F}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4094,37 +4355,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4185,7 +4446,7 @@
       <c r="G4" s="9">
         <v>300</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>176</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -4220,7 +4481,7 @@
       <c r="G5" s="9">
         <v>688</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>177</v>
       </c>
       <c r="I5" s="9" t="s">

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF42C66-574B-4672-BEAB-4827AFF1DCA3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8E9C74-D9D0-4A04-B7DE-8BA1634C3DCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="新服累充" sheetId="29" r:id="rId6"/>
     <sheet name="钻石商城" sheetId="30" r:id="rId7"/>
     <sheet name="月卡表" sheetId="31" r:id="rId8"/>
+    <sheet name="签到" sheetId="33" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="246">
   <si>
     <t>sheet名</t>
   </si>
@@ -423,7 +424,7 @@
       </rPr>
       <t>.json</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -440,31 +441,31 @@
       </rPr>
       <t>ID</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>商品id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>充值数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>charge</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -481,134 +482,134 @@
       </rPr>
       <t>nt:&lt;&gt;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>行ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>68元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>25元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>充值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>charge.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>id,rowId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>新服累充</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>nsCharge.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>#note</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>costsNum</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>commodityID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>累计钻石</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>商品ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>30元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>60元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>100元首冲</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>客户端充值额度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>服务端充值额度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>服务端新服累充</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>钻石商城</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>stoneShop.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6元</t>
   </si>
   <si>
     <t>chargeId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>充值Id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>30元</t>
@@ -621,27 +622,27 @@
   </si>
   <si>
     <t>award[1].id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>award[1].valw</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>award[1].valv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>奖励ID1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>奖励权重1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>奖励值1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -658,141 +659,141 @@
       </rPr>
       <t>tring:&lt;&gt;</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>item_id:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>privilege</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>int:ae&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>特权</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>充值ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>钻石</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>commodyId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>商品Id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>edAward[1].id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>edAward[1].valw</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>edAward[1].valv</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每日奖励ID1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每日奖励权重1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>每日奖励值1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>68元</t>
   </si>
   <si>
     <t>68元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>128元</t>
   </si>
   <si>
     <t>128元</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>月卡表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>monCard.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>客户端月卡表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>服务端月卡表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>201,202,203</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>204,205,206</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>钻石商城表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>dua</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>持续时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>autoAward</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>bool:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>自动获得</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>achieveId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>achieve_id:&lt;&gt;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>成就ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>累充1元</t>
@@ -805,95 +806,255 @@
   </si>
   <si>
     <t>nsCharge.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>zoneId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SDK付费ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>rowId</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>chargeId</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>commodityID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>dua</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>行ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>持续时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>充值ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>商品ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>限时直冲礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>客户端限时直冲的表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>服务端限时直冲的表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>tlistCharge.json</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].id</t>
+  </si>
+  <si>
+    <t>award[2].valw</t>
+  </si>
+  <si>
+    <t>award[2].valv</t>
+  </si>
+  <si>
+    <t>award[3].id</t>
+  </si>
+  <si>
+    <t>award[3].valw</t>
+  </si>
+  <si>
+    <t>award[3].valv</t>
+  </si>
+  <si>
+    <t>奖励权重2</t>
+  </si>
+  <si>
+    <t>奖励值2</t>
+  </si>
+  <si>
+    <t>奖励权重3</t>
+  </si>
+  <si>
+    <t>奖励值3</t>
+  </si>
+  <si>
+    <r>
+      <t>奖励ID2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>奖励ID3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>天命丹</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼石宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备宝箱</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹宝箱</t>
+  </si>
+  <si>
+    <t>天命石宝箱</t>
+  </si>
+  <si>
+    <t>龙晶石宝箱</t>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkIn.json</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>type,day</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>type,day,rowId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端签到表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端签到表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1086,85 +1247,85 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="12" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="12" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1658,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>172</v>
       </c>
@@ -1679,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>172</v>
       </c>
@@ -1700,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>205</v>
       </c>
@@ -1721,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>205</v>
       </c>
@@ -1742,8 +1903,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3323,7 +3526,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3592,7 +3795,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3683,7 +3886,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -3909,7 +4112,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4115,7 +4318,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4292,7 +4495,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4495,7 +4698,1604 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79501F3B-E4F9-4823-BBCE-3BD02934B12E}">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>101</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>10</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>101</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>101</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>101</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>101</v>
+      </c>
+      <c r="C8" s="9">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9">
+        <v>101</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>101</v>
+      </c>
+      <c r="C10" s="9">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9">
+        <v>101</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>50</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9">
+        <v>101</v>
+      </c>
+      <c r="C12" s="9">
+        <v>9</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <v>101</v>
+      </c>
+      <c r="C14" s="9">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <v>101</v>
+      </c>
+      <c r="C15" s="9">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9">
+        <v>101</v>
+      </c>
+      <c r="C16" s="9">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9">
+        <v>101</v>
+      </c>
+      <c r="C17" s="9">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9">
+        <v>101</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>50</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9">
+        <v>101</v>
+      </c>
+      <c r="C19" s="9">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9">
+        <v>101</v>
+      </c>
+      <c r="C20" s="9">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9">
+        <v>101</v>
+      </c>
+      <c r="C21" s="9">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9">
+        <v>101</v>
+      </c>
+      <c r="C22" s="9">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>50</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9">
+        <v>101</v>
+      </c>
+      <c r="C23" s="9">
+        <v>20</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9">
+        <v>101</v>
+      </c>
+      <c r="C24" s="9">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9">
+        <v>101</v>
+      </c>
+      <c r="C25" s="9">
+        <v>22</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>50</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
+        <v>23</v>
+      </c>
+      <c r="B26" s="9">
+        <v>101</v>
+      </c>
+      <c r="C26" s="9">
+        <v>23</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
+        <v>24</v>
+      </c>
+      <c r="B27" s="9">
+        <v>101</v>
+      </c>
+      <c r="C27" s="9">
+        <v>24</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
+      <c r="B28" s="9">
+        <v>101</v>
+      </c>
+      <c r="C28" s="9">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
+        <v>26</v>
+      </c>
+      <c r="B29" s="9">
+        <v>101</v>
+      </c>
+      <c r="C29" s="9">
+        <v>26</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>50</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>27</v>
+      </c>
+      <c r="B30" s="9">
+        <v>101</v>
+      </c>
+      <c r="C30" s="9">
+        <v>27</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9">
+        <v>101</v>
+      </c>
+      <c r="C31" s="9">
+        <v>28</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9">
+        <v>102</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>10</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9">
+        <v>102</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>35</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9">
+        <v>102</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9">
+        <v>102</v>
+      </c>
+      <c r="C35" s="9">
+        <v>4</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>20</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9">
+        <v>102</v>
+      </c>
+      <c r="C36" s="9">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
+        <v>34</v>
+      </c>
+      <c r="B37" s="9">
+        <v>102</v>
+      </c>
+      <c r="C37" s="9">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="9">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9">
+        <v>10</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
+        <v>35</v>
+      </c>
+      <c r="B38" s="9">
+        <v>102</v>
+      </c>
+      <c r="C38" s="9">
+        <v>7</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
+        <v>36</v>
+      </c>
+      <c r="B39" s="9">
+        <v>102</v>
+      </c>
+      <c r="C39" s="9">
+        <v>8</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>50</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>37</v>
+      </c>
+      <c r="B40" s="9">
+        <v>102</v>
+      </c>
+      <c r="C40" s="9">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9">
+        <v>102</v>
+      </c>
+      <c r="C41" s="9">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>39</v>
+      </c>
+      <c r="B42" s="9">
+        <v>102</v>
+      </c>
+      <c r="C42" s="9">
+        <v>11</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9">
+        <v>102</v>
+      </c>
+      <c r="C43" s="9">
+        <v>12</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>50</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>41</v>
+      </c>
+      <c r="B44" s="9">
+        <v>102</v>
+      </c>
+      <c r="C44" s="9">
+        <v>13</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>42</v>
+      </c>
+      <c r="B45" s="9">
+        <v>102</v>
+      </c>
+      <c r="C45" s="9">
+        <v>14</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>43</v>
+      </c>
+      <c r="B46" s="9">
+        <v>102</v>
+      </c>
+      <c r="C46" s="9">
+        <v>15</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>50</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>44</v>
+      </c>
+      <c r="B47" s="9">
+        <v>102</v>
+      </c>
+      <c r="C47" s="9">
+        <v>16</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>45</v>
+      </c>
+      <c r="B48" s="9">
+        <v>102</v>
+      </c>
+      <c r="C48" s="9">
+        <v>17</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>46</v>
+      </c>
+      <c r="B49" s="9">
+        <v>102</v>
+      </c>
+      <c r="C49" s="9">
+        <v>18</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>2</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>47</v>
+      </c>
+      <c r="B50" s="9">
+        <v>102</v>
+      </c>
+      <c r="C50" s="9">
+        <v>19</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>50</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
+        <v>48</v>
+      </c>
+      <c r="B51" s="9">
+        <v>102</v>
+      </c>
+      <c r="C51" s="9">
+        <v>20</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>49</v>
+      </c>
+      <c r="B52" s="9">
+        <v>102</v>
+      </c>
+      <c r="C52" s="9">
+        <v>21</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>2</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>50</v>
+      </c>
+      <c r="B53" s="9">
+        <v>102</v>
+      </c>
+      <c r="C53" s="9">
+        <v>22</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>50</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>51</v>
+      </c>
+      <c r="B54" s="9">
+        <v>102</v>
+      </c>
+      <c r="C54" s="9">
+        <v>23</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
+        <v>2</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>52</v>
+      </c>
+      <c r="B55" s="9">
+        <v>102</v>
+      </c>
+      <c r="C55" s="9">
+        <v>24</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
+        <v>53</v>
+      </c>
+      <c r="B56" s="9">
+        <v>102</v>
+      </c>
+      <c r="C56" s="9">
+        <v>25</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
+        <v>54</v>
+      </c>
+      <c r="B57" s="9">
+        <v>102</v>
+      </c>
+      <c r="C57" s="9">
+        <v>26</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="9">
+        <v>0</v>
+      </c>
+      <c r="F57" s="9">
+        <v>50</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9">
+        <v>102</v>
+      </c>
+      <c r="C58" s="9">
+        <v>27</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
+      <c r="F58" s="9">
+        <v>2</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
+        <v>56</v>
+      </c>
+      <c r="B59" s="9">
+        <v>102</v>
+      </c>
+      <c r="C59" s="9">
+        <v>28</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
+      <c r="F59" s="9">
+        <v>2</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8E9C74-D9D0-4A04-B7DE-8BA1634C3DCD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD4196F-2836-496C-B29D-53493342AFED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -3896,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0AE9D-1735-4772-9B14-6438E9A43218}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4707,7 +4707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79501F3B-E4F9-4823-BBCE-3BD02934B12E}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>

--- a/Excel/activity.活动.xlsx
+++ b/Excel/activity.活动.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC518F4A-AFEC-4E9F-8934-D71463A827EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733FAC7A-F657-432A-B2DF-791E6C11B404}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="金币兑换" sheetId="26" r:id="rId2"/>
     <sheet name="累计充值" sheetId="27" r:id="rId3"/>
     <sheet name="限时直冲礼包" sheetId="32" r:id="rId4"/>
-    <sheet name="充值" sheetId="28" r:id="rId5"/>
-    <sheet name="新服累充" sheetId="29" r:id="rId6"/>
-    <sheet name="钻石商城" sheetId="30" r:id="rId7"/>
-    <sheet name="月卡表" sheetId="31" r:id="rId8"/>
-    <sheet name="签到" sheetId="33" r:id="rId9"/>
+    <sheet name="新服累充" sheetId="29" r:id="rId5"/>
+    <sheet name="钻石商城" sheetId="30" r:id="rId6"/>
+    <sheet name="月卡表" sheetId="31" r:id="rId7"/>
+    <sheet name="签到" sheetId="33" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="231">
   <si>
     <t>sheet名</t>
   </si>
@@ -443,14 +442,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>充值数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -484,34 +475,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>1元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>68元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>25元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge.json</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>rowId</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>id,rowId</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -561,14 +528,6 @@
   </si>
   <si>
     <t>100元首冲</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端充值额度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端充值额度</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -706,16 +665,10 @@
   </si>
   <si>
     <t>68元</t>
-  </si>
-  <si>
-    <t>68元</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>128元</t>
-  </si>
-  <si>
-    <t>128元</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -789,14 +742,6 @@
   </si>
   <si>
     <t>nsCharge.json</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>zoneId</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDK付费ID</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1591,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1707,80 +1652,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="D6" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G6" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="C7" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>138</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>104</v>
@@ -1789,7 +1734,7 @@
         <v>104</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="b">
         <v>1</v>
@@ -1797,20 +1742,20 @@
     </row>
     <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="b">
         <v>1</v>
@@ -1818,11 +1763,11 @@
     </row>
     <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>104</v>
@@ -1831,93 +1776,51 @@
         <v>104</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G12" s="7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G14" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G15" s="7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3512,7 +3415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3540,10 +3443,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3780,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A080F687-34A6-4531-8CF0-FE6ECDFD8B0C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3795,53 +3698,53 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3855,7 +3758,7 @@
         <v>129600</v>
       </c>
       <c r="D4" s="7">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="7">
         <v>201</v>
@@ -3869,231 +3772,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF0AE9D-1735-4772-9B14-6438E9A43218}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>101</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>102</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>103</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7">
-        <v>104</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7">
-        <v>105</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="7">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7">
-        <v>106</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="7">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7">
-        <v>107</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7">
-        <v>201</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9</v>
-      </c>
-      <c r="E11" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7">
-        <v>202</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BD5181-A6FC-441B-BBA9-957704085104}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -4117,65 +3795,65 @@
         <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -4186,13 +3864,13 @@
         <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7">
         <v>1</v>
@@ -4209,7 +3887,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7" t="b">
         <v>0</v>
@@ -4232,13 +3910,13 @@
         <v>103</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D6" s="7" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7">
         <v>30</v>
@@ -4255,13 +3933,13 @@
         <v>104</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D7" s="7" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7">
         <v>60</v>
@@ -4278,7 +3956,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D8" s="7" t="b">
         <v>0</v>
@@ -4300,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F090C25-4CA8-4FFF-BD31-9200E200FC25}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -4325,47 +4003,47 @@
         <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4376,7 +4054,7 @@
         <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D4" s="7">
         <v>102</v>
@@ -4393,7 +4071,7 @@
         <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D5" s="7">
         <v>103</v>
@@ -4410,7 +4088,7 @@
         <v>103</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D6" s="7">
         <v>104</v>
@@ -4427,7 +4105,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7">
         <v>105</v>
@@ -4444,7 +4122,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7">
         <v>106</v>
@@ -4461,7 +4139,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7">
         <v>107</v>
@@ -4476,7 +4154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D38551-5BB3-4892-92E7-2A1BF3977D7F}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -4506,101 +4184,101 @@
         <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -4617,7 +4295,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
@@ -4626,10 +4304,10 @@
         <v>300</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -4652,7 +4330,7 @@
         <v>-1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -4661,10 +4339,10 @@
         <v>688</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -4679,7 +4357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79501F3B-E4F9-4823-BBCE-3BD02934B12E}">
   <dimension ref="A1:L59"/>
   <sheetViews>
@@ -4705,113 +4383,113 @@
         <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -4825,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -4851,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -4877,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -4903,7 +4581,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -4929,7 +4607,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -4955,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -4981,7 +4659,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -5007,7 +4685,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -5033,7 +4711,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -5059,7 +4737,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -5085,7 +4763,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -5111,7 +4789,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -5137,7 +4815,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -5163,7 +4841,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -5189,7 +4867,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -5215,7 +4893,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -5241,7 +4919,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -5267,7 +4945,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -5293,7 +4971,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -5319,7 +4997,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -5345,7 +5023,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -5371,7 +5049,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E25" s="7">
         <v>0</v>
@@ -5397,7 +5075,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -5423,7 +5101,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>
@@ -5449,7 +5127,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E28" s="7">
         <v>0</v>
@@ -5475,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E29" s="7">
         <v>0</v>
@@ -5501,7 +5179,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E30" s="7">
         <v>0</v>
@@ -5527,7 +5205,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -5553,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E32" s="7">
         <v>1</v>
@@ -5579,7 +5257,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -5605,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E34" s="7">
         <v>0</v>
@@ -5631,7 +5309,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
@@ -5657,7 +5335,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E36" s="7">
         <v>0</v>
@@ -5683,7 +5361,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E37" s="7">
         <v>2</v>
@@ -5709,7 +5387,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E38" s="7">
         <v>0</v>
@@ -5735,7 +5413,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
@@ -5761,7 +5439,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E40" s="7">
         <v>0</v>
@@ -5787,7 +5465,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E41" s="7">
         <v>0</v>
@@ -5813,7 +5491,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E42" s="7">
         <v>0</v>
@@ -5839,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E43" s="7">
         <v>0</v>
@@ -5865,7 +5543,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E44" s="7">
         <v>0</v>
@@ -5891,7 +5569,7 @@
         <v>14</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E45" s="7">
         <v>0</v>
@@ -5917,7 +5595,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E46" s="7">
         <v>0</v>
@@ -5943,7 +5621,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E47" s="7">
         <v>0</v>
@@ -5969,7 +5647,7 @@
         <v>17</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E48" s="7">
         <v>0</v>
@@ -5995,7 +5673,7 @@
         <v>18</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E49" s="7">
         <v>0</v>
@@ -6021,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E50" s="7">
         <v>0</v>
@@ -6047,7 +5725,7 @@
         <v>20</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E51" s="7">
         <v>0</v>
@@ -6073,7 +5751,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E52" s="7">
         <v>0</v>
@@ -6099,7 +5777,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E53" s="7">
         <v>0</v>
@@ -6125,7 +5803,7 @@
         <v>23</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E54" s="7">
         <v>0</v>
@@ -6151,7 +5829,7 @@
         <v>24</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E55" s="7">
         <v>0</v>
@@ -6177,7 +5855,7 @@
         <v>25</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E56" s="7">
         <v>0</v>
@@ -6203,7 +5881,7 @@
         <v>26</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E57" s="7">
         <v>0</v>
@@ -6229,7 +5907,7 @@
         <v>27</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E58" s="7">
         <v>0</v>
@@ -6255,7 +5933,7 @@
         <v>28</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E59" s="7">
         <v>0</v>
